--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T11:18:57+00:00</t>
+    <t>2025-06-23T12:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:06:08+00:00</t>
+    <t>2025-06-23T15:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:18:50+00:00</t>
+    <t>2025-07-16T13:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:10:35+00:00</t>
+    <t>2025-07-16T13:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:11:21+00:00</t>
+    <t>2025-07-18T12:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T12:16:57+00:00</t>
+    <t>2025-07-24T12:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:57:22+00:00</t>
+    <t>2025-08-11T08:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
